--- a/次期システム対応/doc/対象項目.xlsx
+++ b/次期システム対応/doc/対象項目.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279">
   <si>
     <t>Ｆ式</t>
   </si>
@@ -494,6 +494,9 @@
   </si>
   <si>
     <t>LRNG</t>
+  </si>
+  <si>
+    <t>計算元</t>
   </si>
   <si>
     <t>Ｌ／Ｈ比</t>
@@ -861,11 +864,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="mm:ss\."/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="mm:ss\."/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -873,6 +876,29 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -883,16 +909,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -914,6 +932,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -921,7 +954,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -936,17 +991,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -958,21 +1006,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -981,39 +1014,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1034,7 +1037,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,19 +1055,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,19 +1079,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1106,7 +1097,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1118,97 +1211,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1241,61 +1244,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1319,6 +1268,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1327,22 +1330,22 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -1351,121 +1354,121 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -14334,23 +14337,23 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.125" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="6" max="6" width="10.375"/>
     <col min="7" max="7" width="16.625" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="8" max="8" width="31.375" customWidth="1"/>
     <col min="10" max="10" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:8">
+    <row r="1" spans="4:9">
       <c r="D1" t="s">
         <v>154</v>
       </c>
@@ -14366,8 +14369,11 @@
       <c r="H1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>105</v>
       </c>
@@ -14391,6 +14397,9 @@
       </c>
       <c r="H2">
         <v>1</v>
+      </c>
+      <c r="I2">
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="4:8">
@@ -14606,7 +14615,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -14631,6 +14640,9 @@
       <c r="H15">
         <v>-9999999999999990</v>
       </c>
+      <c r="I15">
+        <v>413</v>
+      </c>
     </row>
     <row r="16" spans="4:8">
       <c r="D16">
@@ -14666,7 +14678,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>105</v>
       </c>
@@ -14690,6 +14702,9 @@
       </c>
       <c r="H18">
         <v>1</v>
+      </c>
+      <c r="I18">
+        <v>413</v>
       </c>
     </row>
     <row r="19" spans="4:8">
@@ -14752,7 +14767,7 @@
         <v>-9.99999999999999e+16</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>105</v>
       </c>
@@ -14776,6 +14791,9 @@
       </c>
       <c r="H22">
         <v>1</v>
+      </c>
+      <c r="I22">
+        <v>2480</v>
       </c>
     </row>
     <row r="23" spans="4:8">
@@ -14906,7 +14924,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>105</v>
       </c>
@@ -14930,6 +14948,9 @@
       </c>
       <c r="H30">
         <v>1</v>
+      </c>
+      <c r="I30">
+        <v>2780</v>
       </c>
     </row>
     <row r="31" spans="4:8">
@@ -15098,7 +15119,7 @@
   <sheetData>
     <row r="2" spans="1:51">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B2">
         <v>6720</v>
@@ -15259,16 +15280,16 @@
         <v>6720</v>
       </c>
       <c r="F3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J3" t="s">
         <v>54</v>
@@ -15405,16 +15426,16 @@
         <v>6720</v>
       </c>
       <c r="F4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J4" t="s">
         <v>54</v>
@@ -15551,16 +15572,16 @@
         <v>6720</v>
       </c>
       <c r="F5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J5" t="s">
         <v>54</v>
@@ -15735,7 +15756,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I8" s="1">
         <v>39534</v>
@@ -15764,7 +15785,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I9" s="1">
         <v>39534</v>
@@ -15793,7 +15814,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I10" s="1">
         <v>39534</v>
@@ -15815,7 +15836,7 @@
     </row>
     <row r="15" spans="1:51">
       <c r="A15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B15">
         <v>410</v>
@@ -15976,16 +15997,16 @@
         <v>410</v>
       </c>
       <c r="F16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J16" t="s">
         <v>54</v>
@@ -16122,16 +16143,16 @@
         <v>410</v>
       </c>
       <c r="F17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J17" t="s">
         <v>54</v>
@@ -16268,16 +16289,16 @@
         <v>410</v>
       </c>
       <c r="F18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J18" t="s">
         <v>54</v>
@@ -16414,16 +16435,16 @@
         <v>410</v>
       </c>
       <c r="F19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G19" t="s">
+        <v>170</v>
+      </c>
+      <c r="H19" t="s">
+        <v>168</v>
+      </c>
+      <c r="I19" t="s">
         <v>169</v>
-      </c>
-      <c r="H19" t="s">
-        <v>167</v>
-      </c>
-      <c r="I19" t="s">
-        <v>168</v>
       </c>
       <c r="J19" t="s">
         <v>54</v>
@@ -16560,16 +16581,16 @@
         <v>410</v>
       </c>
       <c r="F20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G20" t="s">
+        <v>170</v>
+      </c>
+      <c r="H20" t="s">
+        <v>168</v>
+      </c>
+      <c r="I20" t="s">
         <v>169</v>
-      </c>
-      <c r="H20" t="s">
-        <v>167</v>
-      </c>
-      <c r="I20" t="s">
-        <v>168</v>
       </c>
       <c r="J20" t="s">
         <v>54</v>
@@ -18001,7 +18022,7 @@
     </row>
     <row r="47" spans="1:51">
       <c r="A47" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B47">
         <v>11593</v>
@@ -18162,16 +18183,16 @@
         <v>11593</v>
       </c>
       <c r="F48" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G48" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H48" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I48" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J48" t="s">
         <v>54</v>
@@ -18308,16 +18329,16 @@
         <v>11593</v>
       </c>
       <c r="F49" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G49" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H49" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I49" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J49" t="s">
         <v>54</v>
@@ -18454,16 +18475,16 @@
         <v>11593</v>
       </c>
       <c r="F50" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G50" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H50" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I50" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J50" t="s">
         <v>54</v>
@@ -18638,7 +18659,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I53" s="1">
         <v>42614</v>
@@ -18667,7 +18688,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I54" s="1">
         <v>42614</v>
@@ -18696,7 +18717,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I55" s="1">
         <v>42614</v>
@@ -22032,24 +22053,24 @@
         <v>157</v>
       </c>
       <c r="I2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B3">
         <v>483</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F3">
         <v>483</v>
       </c>
       <c r="G3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H3">
         <v>41</v>
@@ -22063,13 +22084,13 @@
         <v>2515</v>
       </c>
       <c r="C4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F4">
         <v>2515</v>
       </c>
       <c r="G4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H4">
         <v>41</v>
@@ -22083,13 +22104,13 @@
         <v>2815</v>
       </c>
       <c r="C5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F5">
         <v>2815</v>
       </c>
       <c r="G5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H5">
         <v>41</v>
@@ -22103,13 +22124,13 @@
         <v>6929</v>
       </c>
       <c r="C6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F6">
         <v>6929</v>
       </c>
       <c r="G6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H6">
         <v>31</v>
@@ -22123,13 +22144,13 @@
         <v>7316</v>
       </c>
       <c r="C7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F7">
         <v>7316</v>
       </c>
       <c r="G7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H7">
         <v>31</v>
@@ -22143,13 +22164,13 @@
         <v>7317</v>
       </c>
       <c r="C8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F8">
         <v>7317</v>
       </c>
       <c r="G8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H8">
         <v>31</v>
@@ -22163,13 +22184,13 @@
         <v>12944</v>
       </c>
       <c r="C9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F9">
         <v>12944</v>
       </c>
       <c r="G9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H9">
         <v>41</v>
@@ -22183,13 +22204,13 @@
         <v>13417</v>
       </c>
       <c r="C10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F10">
         <v>13417</v>
       </c>
       <c r="G10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H10">
         <v>41</v>
@@ -22203,13 +22224,13 @@
         <v>13418</v>
       </c>
       <c r="C11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F11">
         <v>13418</v>
       </c>
       <c r="G11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H11">
         <v>41</v>
@@ -22223,13 +22244,13 @@
         <v>13419</v>
       </c>
       <c r="C12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F12">
         <v>13419</v>
       </c>
       <c r="G12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H12">
         <v>41</v>
@@ -22243,13 +22264,13 @@
         <v>13420</v>
       </c>
       <c r="C13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F13">
         <v>13420</v>
       </c>
       <c r="G13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H13">
         <v>30</v>
@@ -22260,19 +22281,19 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B14">
         <v>485</v>
       </c>
       <c r="C14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F14">
         <v>485</v>
       </c>
       <c r="G14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H14">
         <v>4</v>
@@ -22286,13 +22307,13 @@
         <v>2521</v>
       </c>
       <c r="C15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F15">
         <v>2521</v>
       </c>
       <c r="G15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H15">
         <v>4</v>
@@ -22306,13 +22327,13 @@
         <v>2821</v>
       </c>
       <c r="C16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F16">
         <v>2821</v>
       </c>
       <c r="G16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H16">
         <v>4</v>
@@ -22326,13 +22347,13 @@
         <v>7026</v>
       </c>
       <c r="C17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F17">
         <v>7026</v>
       </c>
       <c r="G17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H17">
         <v>4</v>
@@ -22343,19 +22364,19 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B18">
         <v>431</v>
       </c>
       <c r="C18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F18">
         <v>431</v>
       </c>
       <c r="G18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H18">
         <v>1.6</v>
@@ -22369,13 +22390,13 @@
         <v>2537</v>
       </c>
       <c r="C19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F19">
         <v>2537</v>
       </c>
       <c r="G19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H19">
         <v>1.6</v>
@@ -22389,13 +22410,13 @@
         <v>2837</v>
       </c>
       <c r="C20" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F20">
         <v>2837</v>
       </c>
       <c r="G20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H20">
         <v>1.6</v>
@@ -22409,13 +22430,13 @@
         <v>7055</v>
       </c>
       <c r="C21" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F21">
         <v>7055</v>
       </c>
       <c r="G21" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H21">
         <v>0.2</v>
@@ -22426,19 +22447,19 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B22">
         <v>427</v>
       </c>
       <c r="C22" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F22">
         <v>427</v>
       </c>
       <c r="G22" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H22">
         <v>6.1</v>
@@ -22452,13 +22473,13 @@
         <v>428</v>
       </c>
       <c r="C23" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F23">
         <v>428</v>
       </c>
       <c r="G23" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H23">
         <v>6.1</v>
@@ -22472,13 +22493,13 @@
         <v>2534</v>
       </c>
       <c r="C24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F24">
         <v>428</v>
       </c>
       <c r="G24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H24">
         <v>6.2</v>
@@ -22492,13 +22513,13 @@
         <v>2535</v>
       </c>
       <c r="C25" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F25">
         <v>2534</v>
       </c>
       <c r="G25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H25">
         <v>6.1</v>
@@ -22512,13 +22533,13 @@
         <v>2834</v>
       </c>
       <c r="C26" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F26">
         <v>2535</v>
       </c>
       <c r="G26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H26">
         <v>6.2</v>
@@ -22532,13 +22553,13 @@
         <v>2835</v>
       </c>
       <c r="C27" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F27">
         <v>2834</v>
       </c>
       <c r="G27" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H27">
         <v>7.1</v>
@@ -22552,13 +22573,13 @@
         <v>3246</v>
       </c>
       <c r="C28" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F28">
         <v>2834</v>
       </c>
       <c r="G28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H28">
         <v>7.1</v>
@@ -22572,13 +22593,13 @@
         <v>3274</v>
       </c>
       <c r="C29" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F29">
         <v>2835</v>
       </c>
       <c r="G29" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H29">
         <v>7.2</v>
@@ -22592,13 +22613,13 @@
         <v>3278</v>
       </c>
       <c r="C30" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F30">
         <v>3246</v>
       </c>
       <c r="G30" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H30">
         <v>3.1</v>
@@ -22612,13 +22633,13 @@
         <v>3279</v>
       </c>
       <c r="C31" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F31">
         <v>3274</v>
       </c>
       <c r="G31" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H31">
         <v>3.1</v>
@@ -22632,13 +22653,13 @@
         <v>7049</v>
       </c>
       <c r="C32" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F32">
         <v>3278</v>
       </c>
       <c r="G32" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H32">
         <v>3.6</v>
@@ -22652,13 +22673,13 @@
         <v>7059</v>
       </c>
       <c r="C33" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F33">
         <v>3279</v>
       </c>
       <c r="G33" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H33">
         <v>2.1</v>
@@ -22672,13 +22693,13 @@
         <v>12933</v>
       </c>
       <c r="C34" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F34">
         <v>7049</v>
       </c>
       <c r="G34" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H34">
         <v>4.1</v>
@@ -22689,19 +22710,19 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B35">
         <v>435</v>
       </c>
       <c r="C35" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F35">
         <v>7049</v>
       </c>
       <c r="G35" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H35">
         <v>4.1</v>
@@ -22715,13 +22736,13 @@
         <v>2539</v>
       </c>
       <c r="C36" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F36">
         <v>7059</v>
       </c>
       <c r="G36" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H36">
         <v>4.2</v>
@@ -22735,13 +22756,13 @@
         <v>2839</v>
       </c>
       <c r="C37" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F37">
         <v>12933</v>
       </c>
       <c r="G37" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H37">
         <v>6.1</v>
@@ -22755,13 +22776,13 @@
         <v>7056</v>
       </c>
       <c r="C38" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F38">
         <v>435</v>
       </c>
       <c r="G38" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H38">
         <v>16</v>
@@ -22775,13 +22796,13 @@
         <v>12950</v>
       </c>
       <c r="C39" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F39">
         <v>2539</v>
       </c>
       <c r="G39" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H39">
         <v>16</v>
@@ -22792,19 +22813,19 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B40">
         <v>7024</v>
       </c>
       <c r="C40" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F40">
         <v>2839</v>
       </c>
       <c r="G40" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H40">
         <v>16</v>
@@ -22818,13 +22839,13 @@
         <v>13067</v>
       </c>
       <c r="C41" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F41">
         <v>7056</v>
       </c>
       <c r="G41" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H41">
         <v>5</v>
@@ -22838,13 +22859,13 @@
         <v>13156</v>
       </c>
       <c r="C42" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F42">
         <v>12950</v>
       </c>
       <c r="G42" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H42">
         <v>16</v>
@@ -22858,13 +22879,13 @@
         <v>13306</v>
       </c>
       <c r="C43" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F43">
         <v>7024</v>
       </c>
       <c r="G43" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H43">
         <v>30</v>
@@ -22878,13 +22899,13 @@
         <v>13370</v>
       </c>
       <c r="C44" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F44">
         <v>13067</v>
       </c>
       <c r="G44" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H44">
         <v>15</v>
@@ -22898,13 +22919,13 @@
         <v>13605</v>
       </c>
       <c r="C45" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F45">
         <v>13156</v>
       </c>
       <c r="G45" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H45">
         <v>15</v>
@@ -22918,7 +22939,7 @@
         <v>13306</v>
       </c>
       <c r="G46" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H46">
         <v>15</v>
@@ -22932,7 +22953,7 @@
         <v>13370</v>
       </c>
       <c r="G47" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H47">
         <v>15</v>
@@ -22946,7 +22967,7 @@
         <v>13605</v>
       </c>
       <c r="G48" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H48">
         <v>15</v>
@@ -22985,16 +23006,16 @@
   <sheetData>
     <row r="1" spans="2:5">
       <c r="B1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="2:5">
@@ -23008,18 +23029,18 @@
         <v>157</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B3">
         <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -23033,7 +23054,7 @@
         <v>421</v>
       </c>
       <c r="C4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D4">
         <v>131</v>
@@ -23047,7 +23068,7 @@
         <v>1001</v>
       </c>
       <c r="C5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -23061,7 +23082,7 @@
         <v>2531</v>
       </c>
       <c r="C6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D6">
         <v>131</v>
@@ -23075,7 +23096,7 @@
         <v>2831</v>
       </c>
       <c r="C7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D7">
         <v>130</v>
@@ -23089,7 +23110,7 @@
         <v>7003</v>
       </c>
       <c r="C8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D8">
         <v>80</v>
@@ -23103,7 +23124,7 @@
         <v>7067</v>
       </c>
       <c r="C9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D9">
         <v>100</v>
@@ -23117,7 +23138,7 @@
         <v>7067</v>
       </c>
       <c r="C10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D10">
         <v>100</v>
@@ -23131,7 +23152,7 @@
         <v>11215</v>
       </c>
       <c r="C11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -23145,7 +23166,7 @@
         <v>11216</v>
       </c>
       <c r="C12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -23159,7 +23180,7 @@
         <v>11221</v>
       </c>
       <c r="C13" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -23173,7 +23194,7 @@
         <v>11222</v>
       </c>
       <c r="C14" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -23187,7 +23208,7 @@
         <v>12398</v>
       </c>
       <c r="C15" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -23201,7 +23222,7 @@
         <v>12930</v>
       </c>
       <c r="C16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D16">
         <v>131</v>
@@ -23215,7 +23236,7 @@
         <v>900101</v>
       </c>
       <c r="C17" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D17">
         <v>10</v>
@@ -23248,16 +23269,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E1" t="s">
         <v>82</v>
@@ -23266,10 +23287,10 @@
         <v>86</v>
       </c>
       <c r="H1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -23538,7 +23559,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
